--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1238,7 +1238,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1401,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39</v>
+        <v>40.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1411,7 +1411,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47</v>
+        <v>47.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2810,21 +2810,29 @@
       <c r="A76" s="24">
         <v>44986</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="14"/>
+      <c r="B76" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="12"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="12"/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="12">
+        <v>1</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="39">
+        <v>44986</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>4/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1414,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.25</v>
+        <v>45.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2838,7 +2841,9 @@
       <c r="A77" s="24">
         <v>45017</v>
       </c>
-      <c r="B77" s="12"/>
+      <c r="B77" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="C77" s="14"/>
       <c r="D77" s="12"/>
       <c r="E77" s="9"/>
@@ -2847,10 +2852,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="12"/>
+      <c r="H77" s="12">
+        <v>2</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="21" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K113" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K114" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1236,12 +1236,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K113"/>
+  <dimension ref="A2:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45.25</v>
+        <v>44.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2862,10 +2862,10 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
-        <v>45047</v>
-      </c>
-      <c r="B78" s="12"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C78" s="14"/>
       <c r="D78" s="12"/>
       <c r="E78" s="9"/>
@@ -2874,14 +2874,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="12"/>
+      <c r="H78" s="12">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
+      <c r="K78" s="39">
+        <v>45028</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="14"/>
@@ -2899,7 +2903,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="14"/>
@@ -2917,7 +2921,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="14"/>
@@ -2935,7 +2939,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -2953,7 +2957,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -2971,7 +2975,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -2989,7 +2993,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -3007,7 +3011,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -3025,7 +3029,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
@@ -3043,7 +3047,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
@@ -3061,7 +3065,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="14"/>
@@ -3079,7 +3083,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
@@ -3097,7 +3101,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -3115,7 +3119,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -3133,7 +3137,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3151,7 +3155,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3169,7 +3173,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3187,7 +3191,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3205,25 +3209,25 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
-        <v>45627</v>
-      </c>
-      <c r="B97" s="13"/>
+        <v>45597</v>
+      </c>
+      <c r="B97" s="12"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="13"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="12"/>
       <c r="G97" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="16"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="14"/>
@@ -3234,14 +3238,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="16"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3259,7 +3263,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3277,7 +3281,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3295,7 +3299,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3313,7 +3317,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3331,7 +3335,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3349,7 +3353,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3367,7 +3371,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3385,7 +3389,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3403,7 +3407,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3414,31 +3418,33 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="16"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="21"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
+        <v>45962</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="13"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="16"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="24">
         <v>45992</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="12"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="21"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="24"/>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
       <c r="D110" s="12"/>
@@ -3487,19 +3493,35 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
-      <c r="B113" s="13"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="13"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H113" s="13"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="16"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="21"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="13"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1241,7 +1241,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2887,9 @@
       <c r="A79" s="24">
         <v>45047</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="C79" s="14"/>
       <c r="D79" s="12"/>
       <c r="E79" s="9"/>
@@ -2899,7 +2901,9 @@
       <c r="H79" s="12"/>
       <c r="I79" s="9"/>
       <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="K79" s="39">
+        <v>45062</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B15499-6BC9-4A41-AD30-B0C8196336FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -907,25 +908,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K114" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1232,34 +1233,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K114"/>
+  <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1283,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1302,7 +1303,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1323,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1330,7 +1331,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1343,7 +1344,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="47" t="s">
@@ -1360,7 +1361,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1404,7 +1405,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.25</v>
+        <v>41.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1414,12 +1415,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.25</v>
+        <v>44.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1442,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43497</v>
       </c>
@@ -1461,7 +1462,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43525</v>
       </c>
@@ -1481,7 +1482,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43556</v>
       </c>
@@ -1501,7 +1502,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43586</v>
       </c>
@@ -1521,7 +1522,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43617</v>
       </c>
@@ -1541,7 +1542,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43647</v>
       </c>
@@ -1561,7 +1562,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43678</v>
       </c>
@@ -1581,7 +1582,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43709</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43739</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43770</v>
       </c>
@@ -1647,7 +1648,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43800</v>
       </c>
@@ -1671,7 +1672,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>41</v>
       </c>
@@ -1689,7 +1690,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>43831</v>
       </c>
@@ -1709,7 +1710,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43862</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="21"/>
       <c r="C25" s="14">
@@ -1749,7 +1750,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43891</v>
       </c>
@@ -1769,7 +1770,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43922</v>
       </c>
@@ -1789,7 +1790,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43952</v>
       </c>
@@ -1809,7 +1810,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43983</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="21"/>
       <c r="C30" s="14">
@@ -1849,7 +1850,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44013</v>
       </c>
@@ -1869,7 +1870,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>44044</v>
       </c>
@@ -1889,7 +1890,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44075</v>
       </c>
@@ -1909,7 +1910,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>44105</v>
       </c>
@@ -1929,7 +1930,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44136</v>
       </c>
@@ -1949,7 +1950,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>44166</v>
       </c>
@@ -1973,7 +1974,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>44</v>
       </c>
@@ -1991,7 +1992,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>44197</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>44228</v>
       </c>
@@ -2035,7 +2036,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>44256</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>44287</v>
       </c>
@@ -2075,7 +2076,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44317</v>
       </c>
@@ -2095,7 +2096,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44348</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44378</v>
       </c>
@@ -2135,7 +2136,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44409</v>
       </c>
@@ -2155,7 +2156,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44440</v>
       </c>
@@ -2175,7 +2176,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44470</v>
       </c>
@@ -2195,7 +2196,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44501</v>
       </c>
@@ -2215,7 +2216,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>44531</v>
       </c>
@@ -2239,7 +2240,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>47</v>
       </c>
@@ -2257,7 +2258,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44562</v>
       </c>
@@ -2275,7 +2276,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <f>EDATE(A51,1)</f>
         <v>44593</v>
@@ -2296,7 +2297,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <f>EDATE(A52,1)</f>
         <v>44621</v>
@@ -2321,7 +2322,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="21"/>
       <c r="C54" s="14">
@@ -2339,7 +2340,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44652</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="21" t="s">
         <v>36</v>
@@ -2385,7 +2386,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="12" t="s">
         <v>34</v>
@@ -2407,7 +2408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14">
@@ -2425,7 +2426,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44682</v>
       </c>
@@ -2445,7 +2446,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44713</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14">
@@ -2487,7 +2488,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>44743</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14">
@@ -2529,7 +2530,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44774</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14">
@@ -2571,7 +2572,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44805</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44835</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44866</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>44896</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="12" t="s">
         <v>60</v>
@@ -2697,7 +2698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>62</v>
       </c>
@@ -2715,7 +2716,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44927</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="12" t="s">
         <v>43</v>
@@ -2761,7 +2762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="12" t="s">
         <v>36</v>
@@ -2783,7 +2784,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44958</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>44986</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>45017</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="12" t="s">
         <v>36</v>
@@ -2883,20 +2884,22 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>45047</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="12"/>
       <c r="E79" s="9"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="9"/>
@@ -2905,11 +2908,11 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
-        <v>45078</v>
-      </c>
-      <c r="B80" s="12"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="24"/>
+      <c r="B80" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C80" s="14"/>
       <c r="D80" s="12"/>
       <c r="E80" s="9"/>
@@ -2918,14 +2921,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="12"/>
+      <c r="H80" s="12">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="39">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="14"/>
@@ -2941,9 +2948,9 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="14"/>
@@ -2959,9 +2966,9 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="14"/>
@@ -2977,9 +2984,9 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -2995,9 +3002,9 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -3013,9 +3020,9 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -3031,9 +3038,9 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
@@ -3049,9 +3056,9 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
@@ -3067,9 +3074,9 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="14"/>
@@ -3085,9 +3092,9 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
@@ -3103,9 +3110,9 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -3121,9 +3128,9 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -3139,9 +3146,9 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3157,9 +3164,9 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3175,9 +3182,9 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3193,9 +3200,9 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3211,9 +3218,9 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3229,27 +3236,27 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
+        <v>45597</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="12"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="24">
         <v>45627</v>
-      </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="13"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="16"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="24">
-        <v>45658</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -3260,14 +3267,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="12"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H99" s="13"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="16"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="24">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3283,9 +3290,9 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3301,9 +3308,9 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3319,9 +3326,9 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3337,9 +3344,9 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3355,9 +3362,9 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3373,9 +3380,9 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3391,9 +3398,9 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3409,9 +3416,9 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3427,9 +3434,9 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3440,31 +3447,33 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H109" s="13"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="16"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H109" s="12"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="21"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24">
+        <v>45962</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="13"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="16"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="24">
         <v>45992</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="21"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="24"/>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
       <c r="D111" s="12"/>
@@ -3479,7 +3488,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3495,7 +3504,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3511,21 +3520,37 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
-      <c r="B114" s="13"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="13"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="12"/>
       <c r="G114" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="16"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="21"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="24"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="13"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3542,10 +3567,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3568,28 +3593,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="55" t="s">
         <v>32</v>
       </c>
@@ -3602,7 +3627,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -3631,7 +3656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -3651,7 +3676,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -3666,10 +3691,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -3689,7 +3714,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -3715,7 +3740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -3741,7 +3766,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -3767,7 +3792,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -3793,7 +3818,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -3819,7 +3844,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -3845,7 +3870,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -3871,7 +3896,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -3897,7 +3922,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -3917,7 +3942,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -3937,7 +3962,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -3957,7 +3982,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -3978,7 +4003,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -3999,7 +4024,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4020,7 +4045,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4041,7 +4066,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4062,7 +4087,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4083,7 +4108,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4104,7 +4129,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4125,7 +4150,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4146,7 +4171,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4167,7 +4192,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4188,7 +4213,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4209,7 +4234,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4230,7 +4255,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -4251,7 +4276,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -4272,7 +4297,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -4293,7 +4318,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -4314,7 +4339,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -4335,7 +4360,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -4356,7 +4381,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -4377,7 +4402,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -4386,7 +4411,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -4395,7 +4420,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -4404,7 +4429,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -4413,7 +4438,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -4422,7 +4447,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -4431,7 +4456,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -4440,7 +4465,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -4449,7 +4474,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -4458,7 +4483,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -4467,7 +4492,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -4476,7 +4501,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -4485,7 +4510,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -4494,7 +4519,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -4503,7 +4528,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -4512,7 +4537,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -4521,7 +4546,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -4530,7 +4555,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -4539,7 +4564,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -4548,7 +4573,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -4557,7 +4582,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -4566,7 +4591,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -4575,7 +4600,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -4584,7 +4609,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -4593,7 +4618,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -4602,7 +4627,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -4611,7 +4636,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -4620,7 +4645,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -4629,7 +4654,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -4638,7 +4663,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B15499-6BC9-4A41-AD30-B0C8196336FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4F2F3-AFA5-41FB-A0F3-5766738B490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -891,7 +891,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1242,7 +1242,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1405,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>41.5</v>
+        <v>42.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1415,7 +1415,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.5</v>
+        <v>44.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2934,19 +2934,27 @@
       <c r="A81" s="24">
         <v>45078</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="14"/>
+      <c r="B81" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="12"/>
       <c r="E81" s="9"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="12"/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="12">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="K81" s="39">
+        <v>45104</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4F2F3-AFA5-41FB-A0F3-5766738B490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -891,7 +890,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -908,25 +907,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1233,34 +1232,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A72" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1282,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1302,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1322,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1331,7 +1330,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1344,7 +1343,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="47" t="s">
@@ -1361,7 +1360,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1415,12 +1414,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.75</v>
+        <v>43.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>38</v>
       </c>
@@ -1442,7 +1441,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43497</v>
       </c>
@@ -1462,7 +1461,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43525</v>
       </c>
@@ -1482,7 +1481,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43556</v>
       </c>
@@ -1502,7 +1501,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43586</v>
       </c>
@@ -1522,7 +1521,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43617</v>
       </c>
@@ -1542,7 +1541,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43647</v>
       </c>
@@ -1562,7 +1561,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43678</v>
       </c>
@@ -1582,7 +1581,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43709</v>
       </c>
@@ -1602,7 +1601,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43739</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43770</v>
       </c>
@@ -1648,7 +1647,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43800</v>
       </c>
@@ -1672,7 +1671,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>41</v>
       </c>
@@ -1690,7 +1689,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>43831</v>
       </c>
@@ -1710,7 +1709,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43862</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="21"/>
       <c r="C25" s="14">
@@ -1750,7 +1749,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43891</v>
       </c>
@@ -1770,7 +1769,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43922</v>
       </c>
@@ -1790,7 +1789,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43952</v>
       </c>
@@ -1810,7 +1809,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43983</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="21"/>
       <c r="C30" s="14">
@@ -1850,7 +1849,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44013</v>
       </c>
@@ -1870,7 +1869,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44044</v>
       </c>
@@ -1890,7 +1889,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44075</v>
       </c>
@@ -1910,7 +1909,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>44105</v>
       </c>
@@ -1930,7 +1929,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44136</v>
       </c>
@@ -1950,7 +1949,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>44166</v>
       </c>
@@ -1974,7 +1973,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>44</v>
       </c>
@@ -1992,7 +1991,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>44197</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>44228</v>
       </c>
@@ -2036,7 +2035,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44256</v>
       </c>
@@ -2056,7 +2055,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>44287</v>
       </c>
@@ -2076,7 +2075,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44317</v>
       </c>
@@ -2096,7 +2095,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44348</v>
       </c>
@@ -2116,7 +2115,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44378</v>
       </c>
@@ -2136,7 +2135,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44409</v>
       </c>
@@ -2156,7 +2155,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44440</v>
       </c>
@@ -2176,7 +2175,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44470</v>
       </c>
@@ -2196,7 +2195,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44501</v>
       </c>
@@ -2216,7 +2215,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>44531</v>
       </c>
@@ -2240,7 +2239,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>47</v>
       </c>
@@ -2258,7 +2257,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44562</v>
       </c>
@@ -2276,7 +2275,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f>EDATE(A51,1)</f>
         <v>44593</v>
@@ -2297,7 +2296,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <f>EDATE(A52,1)</f>
         <v>44621</v>
@@ -2322,7 +2321,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="21"/>
       <c r="C54" s="14">
@@ -2340,7 +2339,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44652</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="21" t="s">
         <v>36</v>
@@ -2386,7 +2385,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="12" t="s">
         <v>34</v>
@@ -2408,7 +2407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14">
@@ -2426,7 +2425,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44682</v>
       </c>
@@ -2446,7 +2445,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44713</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14">
@@ -2488,7 +2487,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>44743</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14">
@@ -2530,7 +2529,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44774</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14">
@@ -2572,7 +2571,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44805</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>44835</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>44866</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44896</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="12" t="s">
         <v>60</v>
@@ -2698,7 +2697,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>62</v>
       </c>
@@ -2716,7 +2715,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44927</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="12" t="s">
         <v>43</v>
@@ -2762,7 +2761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="12" t="s">
         <v>36</v>
@@ -2784,7 +2783,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44958</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>44986</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>45017</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="12" t="s">
         <v>36</v>
@@ -2884,7 +2883,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>45047</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="12" t="s">
         <v>36</v>
@@ -2930,7 +2929,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45078</v>
       </c>
@@ -2956,11 +2955,13 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45108</v>
       </c>
-      <c r="B82" s="12"/>
+      <c r="B82" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="12"/>
       <c r="E82" s="9"/>
@@ -2969,12 +2970,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="12"/>
+      <c r="H82" s="12">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="39">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>45139</v>
       </c>
@@ -2992,7 +2997,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45170</v>
       </c>
@@ -3010,7 +3015,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45200</v>
       </c>
@@ -3028,7 +3033,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45231</v>
       </c>
@@ -3046,7 +3051,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45261</v>
       </c>
@@ -3064,7 +3069,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45292</v>
       </c>
@@ -3082,7 +3087,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45323</v>
       </c>
@@ -3100,7 +3105,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45352</v>
       </c>
@@ -3118,7 +3123,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>45383</v>
       </c>
@@ -3136,7 +3141,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>45413</v>
       </c>
@@ -3154,7 +3159,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>45444</v>
       </c>
@@ -3172,7 +3177,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>45474</v>
       </c>
@@ -3190,7 +3195,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>45505</v>
       </c>
@@ -3208,7 +3213,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>45536</v>
       </c>
@@ -3226,7 +3231,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>45566</v>
       </c>
@@ -3244,7 +3249,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>45597</v>
       </c>
@@ -3262,7 +3267,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>45627</v>
       </c>
@@ -3280,7 +3285,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>45658</v>
       </c>
@@ -3298,7 +3303,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>45689</v>
       </c>
@@ -3316,7 +3321,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>45717</v>
       </c>
@@ -3334,7 +3339,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>45748</v>
       </c>
@@ -3352,7 +3357,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>45778</v>
       </c>
@@ -3370,7 +3375,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>45809</v>
       </c>
@@ -3388,7 +3393,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>45839</v>
       </c>
@@ -3406,7 +3411,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>45870</v>
       </c>
@@ -3424,7 +3429,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>45901</v>
       </c>
@@ -3442,7 +3447,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>45931</v>
       </c>
@@ -3460,7 +3465,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>45962</v>
       </c>
@@ -3478,7 +3483,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>45992</v>
       </c>
@@ -3496,7 +3501,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -3512,7 +3517,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3528,7 +3533,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3544,7 +3549,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3575,10 +3580,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3601,28 +3606,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="55" t="s">
         <v>32</v>
       </c>
@@ -3635,7 +3640,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -3664,7 +3669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -3684,7 +3689,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -3699,10 +3704,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -3722,7 +3727,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -3774,7 +3779,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -3852,7 +3857,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -3878,7 +3883,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -3930,7 +3935,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -3970,7 +3975,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -3990,7 +3995,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4011,7 +4016,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -4032,7 +4037,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4053,7 +4058,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4095,7 +4100,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4137,7 +4142,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4200,7 +4205,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4221,7 +4226,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -4305,7 +4310,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -4410,7 +4415,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -4419,7 +4424,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -4428,7 +4433,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -4437,7 +4442,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -4446,7 +4451,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -4455,7 +4460,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -4464,7 +4469,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -4473,7 +4478,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -4482,7 +4487,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -4491,7 +4496,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -4500,7 +4505,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -4509,7 +4514,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -4518,7 +4523,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -4527,7 +4532,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -4536,7 +4541,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -4545,7 +4550,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -4554,7 +4559,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -4563,7 +4568,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -4572,7 +4577,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -4581,7 +4586,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -4590,7 +4595,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -4599,7 +4604,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -4608,7 +4613,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -4617,7 +4622,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -4626,7 +4631,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -4635,7 +4640,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -4644,7 +4649,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -4653,7 +4658,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -4662,7 +4667,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -4671,7 +4676,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF27CE87-9911-4A50-9716-5D7459118B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,12 +235,15 @@
   </si>
   <si>
     <t>4/4,5/2023</t>
+  </si>
+  <si>
+    <t>7/26-27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -890,7 +894,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -907,25 +911,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K116" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1232,34 +1236,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K115"/>
+  <dimension ref="A2:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1286,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1302,7 +1306,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1326,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1330,7 +1334,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1343,7 +1347,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="47" t="s">
@@ -1360,7 +1364,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1404,7 +1408,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.75</v>
+        <v>44</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1414,12 +1418,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43.75</v>
+        <v>43</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1445,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43497</v>
       </c>
@@ -1461,7 +1465,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43525</v>
       </c>
@@ -1481,7 +1485,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43556</v>
       </c>
@@ -1501,7 +1505,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43586</v>
       </c>
@@ -1521,7 +1525,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43617</v>
       </c>
@@ -1541,7 +1545,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43647</v>
       </c>
@@ -1561,7 +1565,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43678</v>
       </c>
@@ -1581,7 +1585,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43709</v>
       </c>
@@ -1601,7 +1605,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43739</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43770</v>
       </c>
@@ -1647,7 +1651,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43800</v>
       </c>
@@ -1671,7 +1675,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>41</v>
       </c>
@@ -1689,7 +1693,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>43831</v>
       </c>
@@ -1709,7 +1713,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43862</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="21"/>
       <c r="C25" s="14">
@@ -1749,7 +1753,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43891</v>
       </c>
@@ -1769,7 +1773,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43922</v>
       </c>
@@ -1789,7 +1793,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43952</v>
       </c>
@@ -1809,7 +1813,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43983</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="21"/>
       <c r="C30" s="14">
@@ -1849,7 +1853,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44013</v>
       </c>
@@ -1869,7 +1873,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>44044</v>
       </c>
@@ -1889,7 +1893,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44075</v>
       </c>
@@ -1909,7 +1913,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>44105</v>
       </c>
@@ -1929,7 +1933,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44136</v>
       </c>
@@ -1949,7 +1953,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>44166</v>
       </c>
@@ -1973,7 +1977,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>44</v>
       </c>
@@ -1991,7 +1995,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>44197</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>44228</v>
       </c>
@@ -2035,7 +2039,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>44256</v>
       </c>
@@ -2055,7 +2059,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>44287</v>
       </c>
@@ -2075,7 +2079,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>44317</v>
       </c>
@@ -2095,7 +2099,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44348</v>
       </c>
@@ -2115,7 +2119,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44378</v>
       </c>
@@ -2135,7 +2139,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44409</v>
       </c>
@@ -2155,7 +2159,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44440</v>
       </c>
@@ -2175,7 +2179,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44470</v>
       </c>
@@ -2195,7 +2199,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44501</v>
       </c>
@@ -2215,7 +2219,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>44531</v>
       </c>
@@ -2239,7 +2243,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>47</v>
       </c>
@@ -2257,7 +2261,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44562</v>
       </c>
@@ -2275,7 +2279,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <f>EDATE(A51,1)</f>
         <v>44593</v>
@@ -2296,7 +2300,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <f>EDATE(A52,1)</f>
         <v>44621</v>
@@ -2321,7 +2325,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="21"/>
       <c r="C54" s="14">
@@ -2339,7 +2343,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44652</v>
       </c>
@@ -2363,7 +2367,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="21" t="s">
         <v>36</v>
@@ -2385,7 +2389,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="12" t="s">
         <v>34</v>
@@ -2407,7 +2411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14">
@@ -2425,7 +2429,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44682</v>
       </c>
@@ -2445,7 +2449,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44713</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14">
@@ -2487,7 +2491,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>44743</v>
       </c>
@@ -2511,7 +2515,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14">
@@ -2529,7 +2533,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44774</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14">
@@ -2571,7 +2575,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44805</v>
       </c>
@@ -2597,7 +2601,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44835</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44866</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>44896</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="12" t="s">
         <v>60</v>
@@ -2697,7 +2701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>62</v>
       </c>
@@ -2715,7 +2719,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44927</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="12" t="s">
         <v>43</v>
@@ -2761,7 +2765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="12" t="s">
         <v>36</v>
@@ -2783,7 +2787,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>44958</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>44986</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>45017</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="12" t="s">
         <v>36</v>
@@ -2883,7 +2887,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>45047</v>
       </c>
@@ -2907,7 +2911,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="12" t="s">
         <v>36</v>
@@ -2929,7 +2933,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>45078</v>
       </c>
@@ -2955,20 +2959,22 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>45108</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="12"/>
       <c r="E82" s="9"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="12">
         <v>1</v>
@@ -2979,11 +2985,11 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
-        <v>45139</v>
-      </c>
-      <c r="B83" s="12"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="24"/>
+      <c r="B83" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="C83" s="14"/>
       <c r="D83" s="12"/>
       <c r="E83" s="9"/>
@@ -2992,14 +2998,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="12"/>
+      <c r="H83" s="12">
+        <v>2</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="14"/>
@@ -3015,9 +3025,9 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="14"/>
@@ -3033,9 +3043,9 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="14"/>
@@ -3051,9 +3061,9 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="14"/>
@@ -3069,9 +3079,9 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="14"/>
@@ -3087,9 +3097,9 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="24">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="14"/>
@@ -3105,9 +3115,9 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
@@ -3123,9 +3133,9 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -3141,9 +3151,9 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -3159,9 +3169,9 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
@@ -3177,9 +3187,9 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="14"/>
@@ -3195,9 +3205,9 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="24">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="14"/>
@@ -3213,9 +3223,9 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="24">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="14"/>
@@ -3231,9 +3241,9 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3249,9 +3259,9 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3267,27 +3277,27 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="24">
+        <v>45597</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="12"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="24">
         <v>45627</v>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="16"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="24">
-        <v>45658</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -3298,14 +3308,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H100" s="13"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="16"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -3321,9 +3331,9 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="24">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -3339,9 +3349,9 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
@@ -3357,9 +3367,9 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
@@ -3375,9 +3385,9 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="24">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
@@ -3393,9 +3403,9 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="24">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
@@ -3411,9 +3421,9 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="24">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3429,9 +3439,9 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="24">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3447,9 +3457,9 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="24">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3465,9 +3475,9 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="24">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3478,31 +3488,33 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="16"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H110" s="12"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="21"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="24">
+        <v>45962</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="13"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="16"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="24">
         <v>45992</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="12"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
       <c r="D112" s="12"/>
@@ -3517,7 +3529,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3533,7 +3545,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3549,21 +3561,37 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
-      <c r="B115" s="13"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="13"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="12"/>
       <c r="G115" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="13"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="16"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="21"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="24"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="13"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3580,10 +3608,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3606,28 +3634,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="55" t="s">
         <v>32</v>
       </c>
@@ -3640,7 +3668,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -3669,7 +3697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -3689,7 +3717,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -3704,10 +3732,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -3727,7 +3755,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -3753,7 +3781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -3779,7 +3807,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -3805,7 +3833,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -3831,7 +3859,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -3857,7 +3885,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -3883,7 +3911,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -3909,7 +3937,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -3935,7 +3963,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -3955,7 +3983,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -3975,7 +4003,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -3995,7 +4023,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4016,7 +4044,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -4037,7 +4065,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4058,7 +4086,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4079,7 +4107,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4100,7 +4128,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4121,7 +4149,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4142,7 +4170,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4163,7 +4191,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4184,7 +4212,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4205,7 +4233,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4226,7 +4254,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4247,7 +4275,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4268,7 +4296,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -4289,7 +4317,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -4310,7 +4338,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -4331,7 +4359,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -4352,7 +4380,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -4373,7 +4401,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -4394,7 +4422,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -4415,7 +4443,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -4424,7 +4452,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -4433,7 +4461,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -4442,7 +4470,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -4451,7 +4479,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -4460,7 +4488,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -4469,7 +4497,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -4478,7 +4506,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -4487,7 +4515,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -4496,7 +4524,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -4505,7 +4533,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -4514,7 +4542,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -4523,7 +4551,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -4532,7 +4560,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -4541,7 +4569,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -4550,7 +4578,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -4559,7 +4587,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -4568,7 +4596,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -4577,7 +4605,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -4586,7 +4614,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -4595,7 +4623,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -4604,7 +4632,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -4613,7 +4641,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -4622,7 +4650,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -4631,7 +4659,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -4640,7 +4668,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -4649,7 +4677,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -4658,7 +4686,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -4667,7 +4695,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -4676,7 +4704,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF27CE87-9911-4A50-9716-5D7459118B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -243,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -894,7 +893,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -911,25 +910,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K116" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K116" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1236,34 +1235,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A72" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1285,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1306,7 +1305,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1325,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1334,7 +1333,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1347,7 +1346,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="47" t="s">
@@ -1364,7 +1363,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1408,7 +1407,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44</v>
+        <v>46.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1418,12 +1417,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>38</v>
       </c>
@@ -1445,7 +1444,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43497</v>
       </c>
@@ -1465,7 +1464,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43525</v>
       </c>
@@ -1485,7 +1484,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43556</v>
       </c>
@@ -1505,7 +1504,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43586</v>
       </c>
@@ -1525,7 +1524,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43617</v>
       </c>
@@ -1545,7 +1544,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43647</v>
       </c>
@@ -1565,7 +1564,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43678</v>
       </c>
@@ -1585,7 +1584,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43709</v>
       </c>
@@ -1605,7 +1604,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43739</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43770</v>
       </c>
@@ -1651,7 +1650,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43800</v>
       </c>
@@ -1675,7 +1674,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>41</v>
       </c>
@@ -1693,7 +1692,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>43831</v>
       </c>
@@ -1713,7 +1712,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43862</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="21"/>
       <c r="C25" s="14">
@@ -1753,7 +1752,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43891</v>
       </c>
@@ -1773,7 +1772,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43922</v>
       </c>
@@ -1793,7 +1792,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43952</v>
       </c>
@@ -1813,7 +1812,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43983</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="21"/>
       <c r="C30" s="14">
@@ -1853,7 +1852,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44013</v>
       </c>
@@ -1873,7 +1872,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44044</v>
       </c>
@@ -1893,7 +1892,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44075</v>
       </c>
@@ -1913,7 +1912,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>44105</v>
       </c>
@@ -1933,7 +1932,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44136</v>
       </c>
@@ -1953,7 +1952,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>44166</v>
       </c>
@@ -1977,7 +1976,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>44</v>
       </c>
@@ -1995,7 +1994,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>44197</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>44228</v>
       </c>
@@ -2039,7 +2038,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44256</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>44287</v>
       </c>
@@ -2079,7 +2078,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44317</v>
       </c>
@@ -2099,7 +2098,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44348</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44378</v>
       </c>
@@ -2139,7 +2138,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44409</v>
       </c>
@@ -2159,7 +2158,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44440</v>
       </c>
@@ -2179,7 +2178,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44470</v>
       </c>
@@ -2199,7 +2198,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44501</v>
       </c>
@@ -2219,7 +2218,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>44531</v>
       </c>
@@ -2243,7 +2242,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>47</v>
       </c>
@@ -2261,7 +2260,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44562</v>
       </c>
@@ -2279,7 +2278,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f>EDATE(A51,1)</f>
         <v>44593</v>
@@ -2300,7 +2299,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <f>EDATE(A52,1)</f>
         <v>44621</v>
@@ -2325,7 +2324,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="21"/>
       <c r="C54" s="14">
@@ -2343,7 +2342,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44652</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="21" t="s">
         <v>36</v>
@@ -2389,7 +2388,7 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="12" t="s">
         <v>34</v>
@@ -2411,7 +2410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="12"/>
       <c r="C58" s="14">
@@ -2429,7 +2428,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44682</v>
       </c>
@@ -2449,7 +2448,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44713</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14">
@@ -2491,7 +2490,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>44743</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14">
@@ -2533,7 +2532,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44774</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14">
@@ -2575,7 +2574,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44805</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>44835</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>44866</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44896</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="12" t="s">
         <v>60</v>
@@ -2701,7 +2700,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2718,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44927</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="12" t="s">
         <v>43</v>
@@ -2765,7 +2764,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="12" t="s">
         <v>36</v>
@@ -2787,7 +2786,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>44958</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>44986</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>45017</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="12" t="s">
         <v>36</v>
@@ -2887,7 +2886,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>45047</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="12" t="s">
         <v>36</v>
@@ -2933,7 +2932,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45078</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45108</v>
       </c>
@@ -2985,7 +2984,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="12" t="s">
         <v>34</v>
@@ -3007,43 +3006,59 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>45139</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="14"/>
+      <c r="B84" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="12"/>
       <c r="E84" s="9"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="12"/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H84" s="12">
+        <v>1</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="39">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>45170</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="14"/>
+      <c r="B85" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="12"/>
       <c r="E85" s="9"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="12"/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="12">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="39">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>45200</v>
       </c>
@@ -3061,7 +3076,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
@@ -3079,7 +3094,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>45261</v>
       </c>
@@ -3097,7 +3112,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>45292</v>
       </c>
@@ -3115,7 +3130,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>45323</v>
       </c>
@@ -3133,7 +3148,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>45352</v>
       </c>
@@ -3151,7 +3166,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>45383</v>
       </c>
@@ -3169,7 +3184,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>45413</v>
       </c>
@@ -3187,7 +3202,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>45444</v>
       </c>
@@ -3205,7 +3220,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>45474</v>
       </c>
@@ -3223,7 +3238,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>45505</v>
       </c>
@@ -3241,7 +3256,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>45536</v>
       </c>
@@ -3259,7 +3274,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>45566</v>
       </c>
@@ -3277,7 +3292,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>45597</v>
       </c>
@@ -3295,7 +3310,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>45627</v>
       </c>
@@ -3313,7 +3328,7 @@
       <c r="J100" s="13"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>45658</v>
       </c>
@@ -3331,7 +3346,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>45689</v>
       </c>
@@ -3349,7 +3364,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>45717</v>
       </c>
@@ -3367,7 +3382,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>45748</v>
       </c>
@@ -3385,7 +3400,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>45778</v>
       </c>
@@ -3403,7 +3418,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>45809</v>
       </c>
@@ -3421,7 +3436,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>45839</v>
       </c>
@@ -3439,7 +3454,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>45870</v>
       </c>
@@ -3457,7 +3472,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>45901</v>
       </c>
@@ -3475,7 +3490,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>45931</v>
       </c>
@@ -3493,7 +3508,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>45962</v>
       </c>
@@ -3511,7 +3526,7 @@
       <c r="J111" s="13"/>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>45992</v>
       </c>
@@ -3529,7 +3544,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -3545,7 +3560,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -3561,7 +3576,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="12"/>
       <c r="C115" s="14"/>
@@ -3577,7 +3592,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="24"/>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
@@ -3608,10 +3623,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3634,28 +3649,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="55" t="s">
         <v>32</v>
       </c>
@@ -3668,7 +3683,7 @@
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -3697,7 +3712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -3717,7 +3732,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -3732,10 +3747,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -3755,7 +3770,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -3781,7 +3796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -3807,7 +3822,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -3833,7 +3848,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -3859,7 +3874,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -3885,7 +3900,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -3911,7 +3926,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -3937,7 +3952,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -3963,7 +3978,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -3983,7 +3998,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4003,7 +4018,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -4023,7 +4038,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -4065,7 +4080,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4086,7 +4101,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4107,7 +4122,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4128,7 +4143,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4149,7 +4164,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4170,7 +4185,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4191,7 +4206,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4212,7 +4227,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4233,7 +4248,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4254,7 +4269,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4275,7 +4290,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4296,7 +4311,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -4317,7 +4332,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -4338,7 +4353,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -4359,7 +4374,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -4380,7 +4395,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -4401,7 +4416,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -4422,7 +4437,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -4443,7 +4458,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -4452,7 +4467,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -4461,7 +4476,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -4470,7 +4485,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -4479,7 +4494,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -4488,7 +4503,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -4497,7 +4512,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -4506,7 +4521,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -4515,7 +4530,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -4524,7 +4539,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -4533,7 +4548,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -4542,7 +4557,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -4551,7 +4566,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -4560,7 +4575,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -4569,7 +4584,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -4578,7 +4593,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -4587,7 +4602,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -4596,7 +4611,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -4605,7 +4620,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -4614,7 +4629,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -4623,7 +4638,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -4632,7 +4647,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -4641,7 +4656,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -4650,7 +4665,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -4659,7 +4674,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -4668,7 +4683,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -4677,7 +4692,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -4686,7 +4701,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -4695,7 +4710,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -4704,7 +4719,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1253,7 +1253,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45</v>
+        <v>46.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1426,7 +1426,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41</v>
+        <v>41.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3170,13 +3170,15 @@
       <c r="B90" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="12"/>
       <c r="E90" s="9"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="12">
         <v>1</v>
@@ -3244,7 +3246,9 @@
       <c r="A94" s="24">
         <v>45292</v>
       </c>
-      <c r="B94" s="12"/>
+      <c r="B94" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C94" s="14"/>
       <c r="D94" s="12"/>
       <c r="E94" s="9"/>
@@ -3253,10 +3257,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="12"/>
+      <c r="H94" s="12">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="K94" s="39">
+        <v>45303</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -919,7 +919,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K123" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1248,12 +1248,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K121"/>
+  <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1426,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.25</v>
+        <v>40.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3267,44 +3267,50 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="24">
-        <v>45323</v>
-      </c>
-      <c r="B95" s="12"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="C95" s="14"/>
-      <c r="D95" s="12"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="12"/>
+      <c r="F95" s="21"/>
       <c r="G95" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="12"/>
+      <c r="H95" s="40">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
+      <c r="K95" s="39">
+        <v>45313</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="24">
-        <v>45352</v>
-      </c>
-      <c r="B96" s="12"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="C96" s="14"/>
-      <c r="D96" s="12"/>
+      <c r="D96" s="40"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="12"/>
+      <c r="F96" s="21"/>
       <c r="G96" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="12"/>
+      <c r="H96" s="40"/>
       <c r="I96" s="9"/>
       <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="K96" s="39">
+        <v>45309</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="14"/>
@@ -3322,7 +3328,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="14"/>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="14"/>
@@ -3358,7 +3364,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="14"/>
@@ -3376,7 +3382,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="14"/>
@@ -3394,7 +3400,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="14"/>
@@ -3412,7 +3418,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="14"/>
@@ -3430,7 +3436,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="14"/>
@@ -3448,31 +3454,31 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
-        <v>45627</v>
-      </c>
-      <c r="B105" s="13"/>
+        <v>45566</v>
+      </c>
+      <c r="B105" s="12"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="13"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="13"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="16"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="21"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
-        <v>45658</v>
-      </c>
-      <c r="B106" s="13"/>
+        <v>45597</v>
+      </c>
+      <c r="B106" s="12"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="13"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3484,7 +3490,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
@@ -3495,14 +3501,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H107" s="12"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="16"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="14"/>
@@ -3520,7 +3526,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -3538,7 +3544,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="14"/>
@@ -3556,7 +3562,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="14"/>
@@ -3574,7 +3580,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="14"/>
@@ -3592,7 +3598,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="14"/>
@@ -3610,7 +3616,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="14"/>
@@ -3628,7 +3634,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="14"/>
@@ -3646,7 +3652,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
@@ -3657,20 +3663,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="16"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="21"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
-        <v>45992</v>
-      </c>
-      <c r="B117" s="12"/>
+        <v>45931</v>
+      </c>
+      <c r="B117" s="13"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="12"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="13"/>
       <c r="G117" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3681,23 +3687,27 @@
       <c r="K117" s="21"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="24">
+        <v>45962</v>
+      </c>
+      <c r="B118" s="13"/>
       <c r="C118" s="14"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="12"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="13"/>
       <c r="G118" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H118" s="12"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="16"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
+      <c r="A119" s="24">
+        <v>45992</v>
+      </c>
       <c r="B119" s="12"/>
       <c r="C119" s="14"/>
       <c r="D119" s="12"/>
@@ -3730,19 +3740,51 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="24"/>
-      <c r="B121" s="13"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="13"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H121" s="13"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="16"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="21"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="12"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="21"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="13"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/GONZALES, CRISTI NERISSE.xlsx
+++ b/NEW HR/GONZALES, CRISTI NERISSE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1253,7 +1253,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
+      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.25</v>
+        <v>47.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1426,7 +1426,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.25</v>
+        <v>40.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3249,13 +3249,15 @@
       <c r="B94" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="14"/>
+      <c r="C94" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="12"/>
       <c r="E94" s="9"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="12">
         <v>1</v>
@@ -3312,7 +3314,9 @@
       <c r="A97" s="24">
         <v>45323</v>
       </c>
-      <c r="B97" s="12"/>
+      <c r="B97" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="C97" s="14"/>
       <c r="D97" s="12"/>
       <c r="E97" s="9"/>
@@ -3321,10 +3325,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="12"/>
+      <c r="H97" s="12">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="K97" s="39">
+        <v>45328</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
